--- a/Codemig/AMR_Model/AMR_Inputs.xlsx
+++ b/Codemig/AMR_Model/AMR_Inputs.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="Eff" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -11628,8 +11628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21752,4 +21752,585 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="B1">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="C1">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="D1">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="E1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="F1">
+        <v>0.9929</v>
+      </c>
+      <c r="G1">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="J1">
+        <v>0.1</v>
+      </c>
+      <c r="K1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="B2">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="F2">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="J2">
+        <f>J1+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <f>K1+50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.9546</v>
+      </c>
+      <c r="B3">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">J2+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="1">K2+50</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.9506</v>
+      </c>
+      <c r="B4">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.99</v>
+      </c>
+      <c r="G4">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.9456</v>
+      </c>
+      <c r="B5">
+        <v>0.9698</v>
+      </c>
+      <c r="C5">
+        <v>0.9788</v>
+      </c>
+      <c r="D5">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="B6">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="B7">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.9708</v>
+      </c>
+      <c r="E8">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="B9">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.9607</v>
+      </c>
+      <c r="E9">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="B10">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.95</v>
+      </c>
+      <c r="G10">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="B11">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="B12">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="F12">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="B13">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="B14">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C14">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="E14">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="F14">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="B15">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="B16">
+        <v>0.625</v>
+      </c>
+      <c r="C16">
+        <v>0.625</v>
+      </c>
+      <c r="D16">
+        <v>0.625</v>
+      </c>
+      <c r="E16">
+        <v>0.625</v>
+      </c>
+      <c r="F16">
+        <v>0.625</v>
+      </c>
+      <c r="G16">
+        <v>0.625</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="B17">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="E17">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="G17">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="B18">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="F18">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="B19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>